--- a/REGULAR/FERMA ELIZA.xlsx
+++ b/REGULAR/FERMA ELIZA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALMA\Desktop\LEAVE CARD11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7CBFA8-E56D-48DF-8C14-66D96AEEB34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2191C60E-FEB5-42B3-806F-73D8E36C514C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +203,21 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(10-0-0)</t>
+  </si>
+  <si>
+    <t>1/31 - 2/9/2023</t>
+  </si>
+  <si>
+    <t>SL(20-0-0)</t>
+  </si>
+  <si>
+    <t>2/10 - 3/1/2023</t>
   </si>
 </sst>
 </file>
@@ -900,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1229,30 +1236,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A72" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +1280,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1300,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1318,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1319,7 +1326,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1332,7 +1339,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -1349,7 +1356,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1393,7 +1400,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>236.45599999999999</v>
+        <v>238.95599999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1403,12 +1410,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>344.66699999999997</v>
+        <v>317.16699999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1437,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1450,7 +1457,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1470,7 +1477,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1490,7 +1497,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1536,7 +1543,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1556,7 +1563,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1576,7 +1583,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1596,7 +1603,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1616,7 +1623,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1636,7 +1643,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1656,7 +1663,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1678,7 +1685,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23" t="s">
         <v>48</v>
       </c>
@@ -1696,7 +1703,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1716,7 +1723,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1736,7 +1743,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -1756,7 +1763,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -1776,7 +1783,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -1796,7 +1803,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -1816,7 +1823,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -1836,7 +1843,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -1856,7 +1863,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
         <v>49</v>
       </c>
@@ -1876,7 +1883,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -1896,7 +1903,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -1916,7 +1923,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -1940,7 +1947,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>50</v>
       </c>
@@ -1958,7 +1965,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -1978,7 +1985,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -1998,7 +2005,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2018,7 +2025,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2038,7 +2045,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2058,7 +2065,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2078,7 +2085,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2098,7 +2105,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2118,7 +2125,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2138,7 +2145,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2158,7 +2165,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2178,7 +2185,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2202,7 +2209,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>51</v>
       </c>
@@ -2220,7 +2227,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2240,7 +2247,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2260,7 +2267,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2280,7 +2287,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2320,7 +2327,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2340,7 +2347,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2360,7 +2367,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2380,7 +2387,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2400,7 +2407,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2420,7 +2427,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2440,7 +2447,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2464,7 +2471,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>52</v>
       </c>
@@ -2482,7 +2489,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2502,7 +2509,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2522,7 +2529,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2542,7 +2549,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2562,7 +2569,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2582,7 +2589,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2602,7 +2609,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2622,7 +2629,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2642,7 +2649,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2662,7 +2669,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -2682,7 +2689,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -2702,7 +2709,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -2726,8 +2733,10 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -2742,40 +2751,62 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39"/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="39">
+        <v>10</v>
+      </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="K76" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="39"/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H77" s="39">
+        <v>20</v>
+      </c>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="K77" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -2790,8 +2821,10 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -2806,8 +2839,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -2822,8 +2857,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2838,8 +2875,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2854,8 +2893,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2870,8 +2911,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2886,8 +2929,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -2902,8 +2947,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -2918,8 +2965,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -2934,8 +2983,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45292</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -2950,8 +3001,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45323</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -2966,8 +3019,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45352</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -2982,8 +3037,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45383</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -2998,8 +3055,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45413</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3014,8 +3073,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45444</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3030,8 +3091,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45474</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3046,8 +3109,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45505</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3062,8 +3127,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45536</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3078,8 +3145,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45566</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3094,8 +3163,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45597</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3110,8 +3181,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45627</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3126,8 +3199,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45658</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3142,8 +3217,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45689</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3158,8 +3235,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45717</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3174,8 +3253,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45748</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3190,8 +3271,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45778</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3206,8 +3289,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45809</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3222,8 +3307,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45839</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3238,8 +3325,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45870</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3254,8 +3343,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45901</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3270,8 +3361,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45931</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3286,8 +3379,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45962</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3302,8 +3397,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45992</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3318,8 +3415,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>46023</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3334,8 +3433,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>46054</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3350,8 +3451,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>46082</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3366,8 +3469,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>46113</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3382,8 +3487,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>46143</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3398,8 +3505,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>46174</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3414,8 +3523,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>46204</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3430,8 +3541,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>46235</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3446,8 +3559,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>46266</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3462,8 +3577,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>46296</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3478,8 +3595,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>46327</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3494,8 +3613,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>46357</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3510,8 +3631,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>46388</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3526,8 +3649,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>46419</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3542,8 +3667,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>46447</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3558,8 +3685,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>46478</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3574,8 +3703,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>46508</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3590,8 +3721,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="40">
+        <v>46539</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3606,21 +3739,41 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="40">
+        <v>46569</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>46600</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3670,21 +3823,21 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -3697,7 +3850,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3726,7 +3879,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>181.45599999999999</v>
       </c>
@@ -3750,17 +3903,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3781,7 +3934,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3808,7 +3961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3834,7 +3987,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3860,7 +4013,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3886,7 +4039,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3912,7 +4065,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -3938,7 +4091,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -3964,7 +4117,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -3990,7 +4143,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4010,7 +4163,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4030,7 +4183,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4050,7 +4203,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4071,7 +4224,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4092,7 +4245,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4113,7 +4266,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4134,7 +4287,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4155,7 +4308,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4176,7 +4329,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4197,7 +4350,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4218,7 +4371,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4239,7 +4392,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4260,7 +4413,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4281,7 +4434,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4302,7 +4455,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4323,7 +4476,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4344,7 +4497,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4365,7 +4518,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4386,7 +4539,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4407,7 +4560,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4428,7 +4581,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4449,7 +4602,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4470,7 +4623,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4479,7 +4632,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4488,7 +4641,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4497,7 +4650,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4506,7 +4659,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4515,7 +4668,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4524,7 +4677,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4533,7 +4686,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4542,7 +4695,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4551,7 +4704,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4560,7 +4713,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4569,7 +4722,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4578,7 +4731,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4587,7 +4740,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4596,7 +4749,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4605,7 +4758,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4614,7 +4767,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4623,7 +4776,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4632,7 +4785,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4641,7 +4794,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4650,7 +4803,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4659,7 +4812,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4668,7 +4821,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4677,7 +4830,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4686,7 +4839,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4695,7 +4848,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4704,7 +4857,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4713,7 +4866,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4722,7 +4875,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4731,7 +4884,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
